--- a/test_xlsx/M模式装备表.xlsx
+++ b/test_xlsx/M模式装备表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420"/>
+    <workbookView windowWidth="24225" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="113">
   <si>
     <t>MOD</t>
   </si>
@@ -32,6 +32,15 @@
     <t>FRONT_TYPE</t>
   </si>
   <si>
+    <t>uint32</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
     <t>DES</t>
   </si>
   <si>
@@ -50,6 +59,9 @@
     <t>近战使用默认id</t>
   </si>
   <si>
+    <t>场景中每名最大装备掉落数量</t>
+  </si>
+  <si>
     <t>武器类型1</t>
   </si>
   <si>
@@ -62,6 +74,9 @@
     <t>初始基础枪型1</t>
   </si>
   <si>
+    <t>死亡掉落武器1</t>
+  </si>
+  <si>
     <t>武器类型2</t>
   </si>
   <si>
@@ -74,6 +89,9 @@
     <t>初始基础枪型2</t>
   </si>
   <si>
+    <t>死亡掉落武器2</t>
+  </si>
+  <si>
     <t>武器类型3</t>
   </si>
   <si>
@@ -86,6 +104,9 @@
     <t>初始基础枪型3</t>
   </si>
   <si>
+    <t>死亡掉落武器3</t>
+  </si>
+  <si>
     <t>武器类型4</t>
   </si>
   <si>
@@ -98,6 +119,9 @@
     <t>初始基础枪型4</t>
   </si>
   <si>
+    <t>死亡掉落武器4</t>
+  </si>
+  <si>
     <t>武器类型5</t>
   </si>
   <si>
@@ -110,6 +134,9 @@
     <t>初始基础枪型5</t>
   </si>
   <si>
+    <t>死亡掉落武器5</t>
+  </si>
+  <si>
     <t>武器类型6</t>
   </si>
   <si>
@@ -122,6 +149,9 @@
     <t>初始基础枪型6</t>
   </si>
   <si>
+    <t>死亡掉落武器6</t>
+  </si>
+  <si>
     <t>武器类型7</t>
   </si>
   <si>
@@ -134,6 +164,9 @@
     <t>初始基础枪型7</t>
   </si>
   <si>
+    <t>死亡掉落武器7</t>
+  </si>
+  <si>
     <t>NAMES</t>
   </si>
   <si>
@@ -146,6 +179,9 @@
     <t>melee_defaul_id</t>
   </si>
   <si>
+    <t>person_limit_equip</t>
+  </si>
+  <si>
     <t>weapon_type1</t>
   </si>
   <si>
@@ -158,6 +194,9 @@
     <t>type1_base_class</t>
   </si>
   <si>
+    <t>dead_drop_weapon</t>
+  </si>
+  <si>
     <t>weapon_type2</t>
   </si>
   <si>
@@ -257,10 +296,10 @@
     <t>Shotgun,SMG,Rifle,LMG,Sniper</t>
   </si>
   <si>
+    <t>是</t>
+  </si>
+  <si>
     <t>Pistol</t>
-  </si>
-  <si>
-    <t>是</t>
   </si>
   <si>
     <t>Melee</t>
@@ -326,12 +365,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,27 +396,20 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <name val="Microsoft Yahei"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft Yahei"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -387,24 +419,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -433,16 +456,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -462,9 +485,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -478,8 +501,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -493,10 +541,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -506,8 +554,15 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -522,7 +577,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="2" tint="-0.1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,7 +607,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,7 +649,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,19 +751,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,134 +767,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -764,6 +825,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -775,6 +845,54 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -794,32 +912,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -834,33 +931,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -869,10 +939,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -881,140 +951,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1058,6 +1128,19 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1409,14 +1492,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AP20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1426,38 +1509,46 @@
     <col min="3" max="4" width="10.875" style="4" customWidth="1"/>
     <col min="5" max="5" width="14.75" style="4" customWidth="1"/>
     <col min="6" max="6" width="16.875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="31.875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="11.375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="15" style="4" customWidth="1"/>
-    <col min="10" max="10" width="17.625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="15.25" style="4" customWidth="1"/>
-    <col min="12" max="12" width="11.375" style="4" customWidth="1"/>
-    <col min="13" max="13" width="15" style="4" customWidth="1"/>
-    <col min="14" max="14" width="17.625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="15.25" style="4" customWidth="1"/>
-    <col min="16" max="16" width="11.375" style="4" customWidth="1"/>
-    <col min="17" max="17" width="15" style="4" customWidth="1"/>
-    <col min="18" max="18" width="17.625" style="4" customWidth="1"/>
-    <col min="19" max="19" width="15.25" style="4" customWidth="1"/>
-    <col min="20" max="20" width="11.375" style="4" customWidth="1"/>
-    <col min="21" max="21" width="15" style="4" customWidth="1"/>
-    <col min="22" max="22" width="17.625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="29.375" style="15" customWidth="1"/>
+    <col min="8" max="8" width="31.875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="11.375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="15" style="4" customWidth="1"/>
+    <col min="11" max="11" width="17.625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="25.875" style="15" customWidth="1"/>
+    <col min="13" max="13" width="15.25" style="4" customWidth="1"/>
+    <col min="14" max="14" width="11.375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="15" style="4" customWidth="1"/>
+    <col min="16" max="16" width="17.625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="25.875" style="15" customWidth="1"/>
+    <col min="18" max="18" width="15.25" style="4" customWidth="1"/>
+    <col min="19" max="19" width="11.375" style="4" customWidth="1"/>
+    <col min="20" max="20" width="15" style="4" customWidth="1"/>
+    <col min="21" max="21" width="17.625" style="4" customWidth="1"/>
+    <col min="22" max="22" width="25.875" style="15" customWidth="1"/>
     <col min="23" max="23" width="15.25" style="4" customWidth="1"/>
     <col min="24" max="24" width="11.375" style="4" customWidth="1"/>
     <col min="25" max="25" width="15" style="4" customWidth="1"/>
     <col min="26" max="26" width="17.625" style="4" customWidth="1"/>
-    <col min="27" max="27" width="15.25" style="4" customWidth="1"/>
-    <col min="28" max="28" width="11.375" style="4" customWidth="1"/>
-    <col min="29" max="29" width="15" style="4" customWidth="1"/>
-    <col min="30" max="30" width="17.625" style="4" customWidth="1"/>
-    <col min="31" max="31" width="15.25" style="4" customWidth="1"/>
-    <col min="32" max="32" width="11.375" style="4" customWidth="1"/>
-    <col min="33" max="33" width="15" style="4" customWidth="1"/>
-    <col min="34" max="34" width="17.625" style="4" customWidth="1"/>
-    <col min="35" max="16384" width="9" style="4"/>
+    <col min="27" max="27" width="25.875" style="15" customWidth="1"/>
+    <col min="28" max="28" width="15.25" style="4" customWidth="1"/>
+    <col min="29" max="29" width="11.375" style="4" customWidth="1"/>
+    <col min="30" max="30" width="15" style="4" customWidth="1"/>
+    <col min="31" max="31" width="17.625" style="4" customWidth="1"/>
+    <col min="32" max="32" width="25.875" style="15" customWidth="1"/>
+    <col min="33" max="33" width="15.25" style="4" customWidth="1"/>
+    <col min="34" max="34" width="11.375" style="4" customWidth="1"/>
+    <col min="35" max="35" width="15" style="4" customWidth="1"/>
+    <col min="36" max="36" width="17.625" style="4" customWidth="1"/>
+    <col min="37" max="37" width="25.875" style="15" customWidth="1"/>
+    <col min="38" max="38" width="15.25" style="4" customWidth="1"/>
+    <col min="39" max="39" width="11.375" style="4" customWidth="1"/>
+    <col min="40" max="40" width="15" style="4" customWidth="1"/>
+    <col min="41" max="41" width="17.625" style="4" customWidth="1"/>
+    <col min="42" max="42" width="25.875" style="15" customWidth="1"/>
+    <col min="43" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:34">
+    <row r="1" s="1" customFormat="1" ht="17.25" spans="1:42">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1473,31 +1564,39 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
+      <c r="L1" s="16"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
+      <c r="Q1" s="16"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
+      <c r="V1" s="16"/>
       <c r="W1" s="5"/>
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
+      <c r="AA1" s="16"/>
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
       <c r="AD1" s="5"/>
       <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
+      <c r="AF1" s="16"/>
       <c r="AG1" s="5"/>
       <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="16"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:34">
+    <row r="2" s="1" customFormat="1" ht="17.25" spans="1:42">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -1513,334 +1612,496 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
+      <c r="L2" s="16"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
+      <c r="Q2" s="16"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
+      <c r="V2" s="16"/>
       <c r="W2" s="6"/>
       <c r="X2" s="6"/>
       <c r="Y2" s="6"/>
       <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
+      <c r="AA2" s="16"/>
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
       <c r="AD2" s="6"/>
       <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
+      <c r="AF2" s="16"/>
       <c r="AG2" s="6"/>
       <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="16"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="16"/>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:34">
+    <row r="3" s="1" customFormat="1" ht="17.25" spans="1:42">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
-      <c r="AH3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP3" s="16" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:34">
+    <row r="4" s="1" customFormat="1" ht="17.25" spans="1:42">
       <c r="A4" s="7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>19</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="Q4" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="V4" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="V4" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="W4" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="X4" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="Y4" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Z4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA4" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="AA4" s="16" t="s">
+        <v>34</v>
       </c>
       <c r="AB4" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC4" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AD4" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AE4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF4" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="AF4" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="AG4" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AH4" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="AI4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK4" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP4" s="16" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:34">
+    <row r="5" s="1" customFormat="1" ht="17.25" spans="1:42">
       <c r="A5" s="6" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>48</v>
+        <v>58</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>59</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>53</v>
+        <v>63</v>
+      </c>
+      <c r="Q5" s="17" t="s">
+        <v>59</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="S5" s="6" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="T5" s="6" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="V5" s="6" t="s">
-        <v>58</v>
+        <v>67</v>
+      </c>
+      <c r="V5" s="17" t="s">
+        <v>59</v>
       </c>
       <c r="W5" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="X5" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y5" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z5" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA5" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="X5" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y5" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z5" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA5" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="AB5" s="6" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="AC5" s="6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="AD5" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="AE5" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF5" s="6" t="s">
-        <v>68</v>
+        <v>75</v>
+      </c>
+      <c r="AF5" s="17" t="s">
+        <v>59</v>
       </c>
       <c r="AG5" s="6" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="AH5" s="6" t="s">
-        <v>70</v>
+        <v>77</v>
+      </c>
+      <c r="AI5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ5" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK5" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL5" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN5" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO5" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AP5" s="17" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:34">
+    <row r="6" s="1" customFormat="1" spans="1:42">
       <c r="A6" s="6" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="J6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6" t="s">
+        <v>86</v>
+      </c>
       <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6" t="s">
-        <v>73</v>
-      </c>
+      <c r="L6" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" s="6"/>
       <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
+      <c r="O6" s="6" t="s">
+        <v>86</v>
+      </c>
       <c r="P6" s="6"/>
-      <c r="Q6" s="6" t="s">
-        <v>73</v>
+      <c r="Q6" s="18" t="s">
+        <v>85</v>
       </c>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="V6" s="6"/>
+      <c r="T6" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="U6" s="6"/>
+      <c r="V6" s="18" t="s">
+        <v>85</v>
+      </c>
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
       <c r="Y6" s="6" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
+      <c r="AA6" s="18" t="s">
+        <v>85</v>
+      </c>
       <c r="AB6" s="6"/>
-      <c r="AC6" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6" t="s">
+        <v>86</v>
+      </c>
       <c r="AE6" s="6"/>
-      <c r="AF6" s="6"/>
-      <c r="AG6" s="6" t="s">
-        <v>73</v>
-      </c>
+      <c r="AF6" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG6" s="6"/>
       <c r="AH6" s="6"/>
+      <c r="AI6" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL6" s="6"/>
+      <c r="AM6" s="6"/>
+      <c r="AN6" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO6" s="6"/>
+      <c r="AP6" s="18" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:34">
+    <row r="7" s="1" customFormat="1" ht="17.25" spans="1:42">
       <c r="A7" s="8" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -1851,33 +2112,41 @@
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
+      <c r="L7" s="19"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
+      <c r="Q7" s="19"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
+      <c r="V7" s="19"/>
       <c r="W7" s="8"/>
       <c r="X7" s="8"/>
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
-      <c r="AA7" s="8"/>
+      <c r="AA7" s="19"/>
       <c r="AB7" s="8"/>
       <c r="AC7" s="8"/>
       <c r="AD7" s="8"/>
       <c r="AE7" s="8"/>
-      <c r="AF7" s="8"/>
+      <c r="AF7" s="19"/>
       <c r="AG7" s="8"/>
       <c r="AH7" s="8"/>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="19"/>
+      <c r="AL7" s="8"/>
+      <c r="AM7" s="8"/>
+      <c r="AN7" s="8"/>
+      <c r="AO7" s="8"/>
+      <c r="AP7" s="19"/>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:34">
+    <row r="8" s="2" customFormat="1" spans="1:42">
       <c r="A8" s="9" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="B8" s="10">
         <v>1001</v>
@@ -1887,85 +2156,109 @@
         <v>唯一</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H8" s="2">
+        <v>91</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" s="2">
         <v>1</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L8" s="2">
+      <c r="J8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N8" s="2">
         <v>1</v>
       </c>
-      <c r="M8" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="N8" s="14">
+      <c r="O8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P8" s="2">
         <v>1001</v>
       </c>
-      <c r="O8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="P8" s="2">
+      <c r="Q8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="S8" s="2">
         <v>1</v>
       </c>
-      <c r="Q8" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="T8" s="2">
+      <c r="T8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="X8" s="2">
         <v>4</v>
       </c>
-      <c r="U8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="X8" s="2">
+      <c r="Y8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC8" s="2">
         <v>1</v>
       </c>
-      <c r="Y8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA8" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB8" s="2">
+      <c r="AD8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH8" s="2">
         <v>1</v>
       </c>
-      <c r="AC8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF8" s="2">
+      <c r="AI8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AM8" s="2">
         <v>1</v>
       </c>
-      <c r="AG8" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH8" s="2">
+      <c r="AN8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO8" s="2">
         <v>4004</v>
       </c>
+      <c r="AP8" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:33">
+    <row r="9" s="2" customFormat="1" spans="1:42">
       <c r="A9" s="9" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="B9" s="10">
         <v>1002</v>
@@ -1975,88 +2268,112 @@
         <v>唯一</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" s="2">
+        <v>91</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2">
+        <v>6</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="2">
         <v>1</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L9" s="2">
+      <c r="J9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N9" s="2">
         <v>1</v>
       </c>
-      <c r="M9" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="N9" s="14">
+      <c r="O9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P9" s="2">
         <v>1005</v>
       </c>
-      <c r="O9" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="P9" s="2">
+      <c r="Q9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="S9" s="2">
         <v>1</v>
       </c>
-      <c r="Q9" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="T9" s="2">
+      <c r="T9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="X9" s="2">
         <v>4</v>
       </c>
-      <c r="U9" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="V9" s="2">
+      <c r="Y9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z9" s="2">
         <v>3001</v>
       </c>
-      <c r="W9" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="X9" s="2">
+      <c r="AA9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC9" s="2">
         <v>1</v>
       </c>
-      <c r="Y9" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z9" s="2">
+      <c r="AD9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE9" s="2">
         <v>4002</v>
       </c>
-      <c r="AA9" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB9" s="2">
+      <c r="AF9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH9" s="2">
         <v>1</v>
       </c>
-      <c r="AC9" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE9" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF9" s="2">
+      <c r="AI9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AM9" s="2">
         <v>1</v>
       </c>
-      <c r="AG9" s="2" t="s">
-        <v>78</v>
+      <c r="AN9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP9" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" spans="1:33">
+    <row r="10" s="2" customFormat="1" spans="1:42">
       <c r="A10" s="9" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="B10" s="10">
         <v>1003</v>
@@ -2066,82 +2383,106 @@
         <v>唯一</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10" s="2">
+        <v>91</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I10" s="2">
         <v>1</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="S10" s="2">
+        <v>1</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="X10" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>4002</v>
+      </c>
+      <c r="AF10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AM10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP10" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42">
+      <c r="A11" s="9" t="s">
         <v>89</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L10" s="2">
-        <v>1</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="P10" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="T10" s="2">
-        <v>4</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="X10" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z10" s="2">
-        <v>4002</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE10" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG10" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34">
-      <c r="A11" s="9" t="s">
-        <v>76</v>
       </c>
       <c r="B11" s="10">
         <v>1004</v>
@@ -2151,88 +2492,122 @@
         <v>唯一</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H11" s="2">
+        <v>91</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I11" s="2">
         <v>1</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L11" s="2">
+      <c r="J11" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N11" s="2">
         <v>1</v>
       </c>
-      <c r="M11" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="N11" s="14">
+      <c r="O11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P11" s="2">
         <v>1001</v>
       </c>
-      <c r="O11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="P11" s="2">
+      <c r="Q11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="S11" s="2">
         <v>1</v>
       </c>
-      <c r="Q11" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="T11" s="2">
+      <c r="T11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="X11" s="2">
         <v>4</v>
       </c>
-      <c r="U11" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="V11" s="2">
+      <c r="Y11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z11" s="2">
         <v>3001</v>
       </c>
-      <c r="W11" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="X11" s="2">
+      <c r="AA11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC11" s="2">
         <v>1</v>
       </c>
-      <c r="Y11" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z11" s="2">
+      <c r="AD11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE11" s="2">
         <v>4002</v>
       </c>
-      <c r="AA11" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB11" s="2">
+      <c r="AF11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH11" s="2">
         <v>1</v>
       </c>
-      <c r="AC11" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD11" s="2"/>
-      <c r="AE11" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF11" s="2">
+      <c r="AI11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ11" s="2"/>
+      <c r="AK11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL11" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AM11" s="2">
         <v>1</v>
       </c>
-      <c r="AG11" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH11" s="2"/>
+      <c r="AN11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO11" s="2"/>
+      <c r="AP11" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="20:20">
+      <c r="T17" s="2"/>
+    </row>
+    <row r="18" spans="20:20">
+      <c r="T18" s="2"/>
+    </row>
+    <row r="19" spans="20:20">
+      <c r="T19" s="2"/>
+    </row>
+    <row r="20" spans="20:20">
+      <c r="T20" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2412,268 +2787,268 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:34">
       <c r="A4" s="7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="W4" s="7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="X4" s="7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="Y4" s="7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Z4" s="7" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="AA4" s="7" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="AB4" s="7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="AC4" s="7" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="AD4" s="7" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="AE4" s="7" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AF4" s="7" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AG4" s="7" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="AH4" s="7" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:34">
       <c r="A5" s="6" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="S5" s="6" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="T5" s="6" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="V5" s="6" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="W5" s="6" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="X5" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="Y5" s="6" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="Z5" s="6" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="AA5" s="6" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="AB5" s="6" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="AC5" s="6" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="AD5" s="6" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="AE5" s="6" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="AF5" s="6" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="AG5" s="6" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="AH5" s="6" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:34">
       <c r="A6" s="6" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
       <c r="U6" s="6" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
       <c r="Y6" s="6" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
       <c r="AB6" s="6"/>
       <c r="AC6" s="6" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="AD6" s="6"/>
       <c r="AE6" s="6"/>
       <c r="AF6" s="6"/>
       <c r="AG6" s="6" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="AH6" s="6"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:34">
       <c r="A7" s="8" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -2718,77 +3093,77 @@
         <v>唯一</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="2" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="L8" s="2">
         <v>1</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="N8" s="14">
         <v>1001</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="P8" s="2">
         <v>1</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="T8" s="2">
         <v>4</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="X8" s="2">
         <v>1</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="AB8" s="2">
         <v>1</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="AF8" s="2">
         <v>1</v>
       </c>
       <c r="AG8" s="2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AH8" s="2">
         <v>4004</v>
@@ -2796,25 +3171,25 @@
     </row>
     <row r="9" ht="99" spans="2:10">
       <c r="B9" s="4" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="6:6">
